--- a/data/evaluation/evaluation_Center_Winter_Pomelo.xlsx
+++ b/data/evaluation/evaluation_Center_Winter_Pomelo.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2261.615288220551</v>
+        <v>2242.931077694235</v>
       </c>
       <c r="C3" t="n">
-        <v>9744522.143603055</v>
+        <v>9723166.090971475</v>
       </c>
       <c r="D3" t="n">
-        <v>3121.621716929048</v>
+        <v>3118.199174358731</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1049943369438325</v>
+        <v>0.1069558274883777</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2300.243511024064</v>
+        <v>2266.43852786687</v>
       </c>
       <c r="C4" t="n">
-        <v>9509137.832981652</v>
+        <v>9421745.183545308</v>
       </c>
       <c r="D4" t="n">
-        <v>3083.688997447968</v>
+        <v>3069.486143240479</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1266136927107057</v>
+        <v>0.1346404502060803</v>
       </c>
     </row>
     <row r="5">
